--- a/tests/testthat/_snaps/xlsx_export/Table_4.xlsx
+++ b/tests/testthat/_snaps/xlsx_export/Table_4.xlsx
@@ -597,7 +597,7 @@
     <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1">
+    <row r="1" ht="39.2" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="27" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>8</v>
       </c>
